--- a/static/documents/drt/en/c1.xlsx
+++ b/static/documents/drt/en/c1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Patient ID</t>
   </si>
@@ -68,20 +68,23 @@
 1=acute</t>
   </si>
   <si>
-    <t>if yes, specify here
+    <t xml:space="preserve">The data in the light blue area should be used for the upload into the IT platform. </t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C-section rate</t>
+  </si>
+  <si>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>yes=1
 0=no</t>
   </si>
   <si>
-    <t xml:space="preserve">The data in the light blue area should be used for the upload into the IT platform. </t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C-section rate</t>
-  </si>
-  <si>
-    <t>Case ID</t>
+    <t>if yes, specify here</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -213,11 +216,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,14 +299,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,71 +627,74 @@
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="10" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="20.25">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="15">
         <v>3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="14">
         <v>4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="15">
         <v>5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="14">
         <v>6</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="15">
         <v>7</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="14">
         <v>8</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="15">
         <v>9</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="16">
         <v>10</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="15">
         <v>11</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="63.75">
+      <c r="M5" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="63.75">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -646,14 +720,15 @@
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.5">
+    <row r="7" spans="1:13" ht="25.5">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
@@ -674,12 +749,15 @@
         <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -692,8 +770,9 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -706,8 +785,9 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -720,8 +800,9 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -734,8 +815,9 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -748,8 +830,9 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -762,8 +845,9 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -776,8 +860,9 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -790,8 +875,9 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -804,8 +890,9 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -818,8 +905,9 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -832,8 +920,9 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -846,8 +935,9 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -860,8 +950,9 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -874,8 +965,9 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -888,8 +980,9 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -902,8 +995,9 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -916,8 +1010,9 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -930,8 +1025,9 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -944,8 +1040,9 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -958,8 +1055,9 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -972,8 +1070,9 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -986,8 +1085,9 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1000,8 +1100,9 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1014,8 +1115,9 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1028,8 +1130,9 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1042,8 +1145,9 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1056,8 +1160,9 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1070,8 +1175,9 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1084,8 +1190,9 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1098,8 +1205,9 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1112,8 +1220,9 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1126,8 +1235,9 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1140,8 +1250,9 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1154,8 +1265,9 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1168,8 +1280,9 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1182,8 +1295,9 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1196,8 +1310,9 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1210,8 +1325,9 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1224,8 +1340,9 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1238,8 +1355,9 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1252,8 +1370,9 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1266,8 +1385,9 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1280,8 +1400,9 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1294,8 +1415,9 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1308,8 +1430,9 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1322,8 +1445,9 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1336,8 +1460,9 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1350,8 +1475,9 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1364,8 +1490,9 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1378,8 +1505,9 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1392,8 +1520,9 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1406,8 +1535,9 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1420,8 +1550,9 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1434,8 +1565,9 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1448,8 +1580,9 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1462,8 +1595,9 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1476,8 +1610,9 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1490,8 +1625,9 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1504,8 +1640,9 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1518,8 +1655,9 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1532,10 +1670,11 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
